--- a/ChecklistFile.xlsx
+++ b/ChecklistFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr updateLinks="never"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Library/Mobile Documents/com~apple~CloudDocs/HCMUT/KÌ 6/LSI Logic Design/THỰC HÀNH/LSI_Design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NGUYEN THANH SANG\Desktop\TKVM\LSI_Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06738F6-CAC0-E14D-9467-30FA5FDA8EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854FFD53-C2C0-49D5-8B3F-8CCA42C54647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20360" tabRatio="643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="643" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="13" r:id="rId1"/>
@@ -57,17 +57,15 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Giang Truong Le. Nguyen - Personal View" guid="{D6408F3F-69A9-4377-B307-B0A0F5ECDF86}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="3"/>
+    <customWorkbookView name="Phong Thanh. Phan - Personal View" guid="{BBCD1273-FB62-4046-AADE-F9CEEA687EB3}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="5"/>
     <customWorkbookView name="Hung Quang. Truong - Personal View" guid="{C61E42EC-A28A-4F34-B1F0-5B0C369C3BFF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1864" windowHeight="1218" activeSheetId="6"/>
-    <customWorkbookView name="Phong Thanh. Phan - Personal View" guid="{BBCD1273-FB62-4046-AADE-F9CEEA687EB3}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="5"/>
-    <customWorkbookView name="Giang Truong Le. Nguyen - Personal View" guid="{D6408F3F-69A9-4377-B307-B0A0F5ECDF86}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="3"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -77,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>&lt;Revision history&gt;</t>
   </si>
@@ -271,6 +269,45 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> &amp; previous mode will be combined to caculate true mode (new mode).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test the output of block </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>trigger_creating</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> change when there is a change of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>enable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> signal. Test the dependence of the output on clk.</t>
     </r>
   </si>
 </sst>
@@ -3963,75 +4000,75 @@
   </cellXfs>
   <cellStyles count="586">
     <cellStyle name="〰" xfId="88" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="〰〰" xfId="89" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="〰〰　0" xfId="90" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="〰〰　0 2" xfId="91" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="〰〰　0 3" xfId="92" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="〰〰　0???" xfId="93" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="〰 2" xfId="94" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="〰〰 2" xfId="95" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="〰 2 2" xfId="461" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="〰 2 2 2" xfId="551" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="〰 2 3" xfId="543" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="〰 3" xfId="96" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="〰〰 3" xfId="97" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="〰 3 2" xfId="462" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="〰 3 2 2" xfId="552" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
     <cellStyle name="〰 3 3" xfId="544" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="〰 4" xfId="98" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="〰〰 4" xfId="99" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="〰 4 2" xfId="463" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="〰 4 2 2" xfId="553" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="〰 4 3" xfId="545" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
     <cellStyle name="〰 5" xfId="100" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="〰〰 5" xfId="101" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
     <cellStyle name="〰 5 2" xfId="464" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="〰 5 2 2" xfId="554" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
     <cellStyle name="〰 5 3" xfId="546" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="〰 6" xfId="102" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="〰〰 6" xfId="103" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="〰 6 2" xfId="465" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
     <cellStyle name="〰 6 2 2" xfId="555" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="〰 6 3" xfId="547" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
     <cellStyle name="〰 7" xfId="104" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="〰〰 7" xfId="105" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
     <cellStyle name="〰 7 2" xfId="466" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
     <cellStyle name="〰 7 2 2" xfId="556" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
     <cellStyle name="〰 7 3" xfId="548" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="〰 8" xfId="460" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
     <cellStyle name="〰 8 2" xfId="550" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="〰 9" xfId="542" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="〰〰" xfId="89" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="〰〰　0" xfId="90" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="〰〰　0 2" xfId="91" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="〰〰　0 3" xfId="92" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="〰〰　0???" xfId="93" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="〰〰 2" xfId="95" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="〰〰 3" xfId="97" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="〰〰 4" xfId="99" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="〰〰 5" xfId="101" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="〰〰 6" xfId="103" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="〰〰 7" xfId="105" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="〰〰〰0" xfId="112" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="〰〰〰0 2" xfId="115" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="〰〰〰0 3" xfId="118" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="〰〰〰0 4" xfId="121" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="〰〰〰0 5" xfId="124" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="〰〰〰0 6" xfId="127" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="〰〰〰0 7" xfId="130" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="〰〰〰0???_Panther_SH7764_Checklist_SSI_V0.5_NewTemp" xfId="134" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="〰〰〰0?????" xfId="132" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="〰〰??" xfId="107" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="〰〰0" xfId="111" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="〰〰0 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="〰〰0 3" xfId="117" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="〰〰0 4" xfId="120" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="〰〰0 5" xfId="123" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="〰〰0 6" xfId="126" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="〰〰0 7" xfId="129" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="〰〰0????_Panther_SH7764_Checklist_SSI_V0.5_NewTemp_1" xfId="133" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
     <cellStyle name="〰?" xfId="106" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="〰? 2" xfId="527" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="〰? 2 2" xfId="580" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="〰〰??" xfId="107" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="???〰〰0???????" xfId="108" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
     <cellStyle name="〰?_Panther_SH7764_Checklist_SSI_V0.5_NewTemp" xfId="109" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
     <cellStyle name="〰0〰" xfId="110" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="〰〰0" xfId="111" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="〰〰〰0" xfId="112" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
     <cellStyle name="〰0〰 2" xfId="113" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="〰〰0 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="〰〰〰0 2" xfId="115" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
     <cellStyle name="〰0〰 3" xfId="116" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="〰〰0 3" xfId="117" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="〰〰〰0 3" xfId="118" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
     <cellStyle name="〰0〰 4" xfId="119" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="〰〰0 4" xfId="120" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="〰〰〰0 4" xfId="121" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
     <cellStyle name="〰0〰 5" xfId="122" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="〰〰0 5" xfId="123" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="〰〰〰0 5" xfId="124" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
     <cellStyle name="〰0〰 6" xfId="125" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="〰〰0 6" xfId="126" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="〰〰〰0 6" xfId="127" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
     <cellStyle name="〰0〰 7" xfId="128" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="〰〰0 7" xfId="129" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="〰〰〰0 7" xfId="130" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
     <cellStyle name="〰0〰???" xfId="131" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="???〰〰0???????" xfId="108" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="〰〰〰0?????" xfId="132" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="〰〰0????_Panther_SH7764_Checklist_SSI_V0.5_NewTemp_1" xfId="133" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="〰〰〰0???_Panther_SH7764_Checklist_SSI_V0.5_NewTemp" xfId="134" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
@@ -5155,58 +5192,58 @@
   </sheetPr>
   <dimension ref="C3:O39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B14" zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B33" zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.05" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="2.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="2.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
-    <col min="5" max="12" width="8.1640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.1640625" style="1" customWidth="1"/>
+    <col min="5" max="12" width="8.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.109375" style="1" customWidth="1"/>
     <col min="15" max="15" width="22" style="1" customWidth="1"/>
-    <col min="16" max="307" width="8.1640625" style="1" customWidth="1"/>
+    <col min="16" max="307" width="8.109375" style="1" customWidth="1"/>
     <col min="308" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:9" ht="16" customHeight="1">
+    <row r="3" spans="4:9" ht="16.05" customHeight="1">
       <c r="D3" s="39"/>
       <c r="E3" s="40"/>
       <c r="F3" s="41"/>
     </row>
-    <row r="4" spans="4:9" ht="16" customHeight="1">
+    <row r="4" spans="4:9" ht="16.05" customHeight="1">
       <c r="D4" s="42"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
     </row>
-    <row r="10" spans="4:9" ht="40">
+    <row r="10" spans="4:9" ht="40.200000000000003">
       <c r="I10" s="2"/>
     </row>
-    <row r="12" spans="4:9" ht="28">
+    <row r="12" spans="4:9" ht="28.2">
       <c r="I12" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="4:9" ht="16" customHeight="1">
+    <row r="14" spans="4:9" ht="16.05" customHeight="1">
       <c r="I14" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="4:9" ht="16" customHeight="1">
+    <row r="15" spans="4:9" ht="16.05" customHeight="1">
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="4:9" ht="16" customHeight="1">
+    <row r="16" spans="4:9" ht="16.05" customHeight="1">
       <c r="E16" s="14"/>
     </row>
-    <row r="20" spans="3:15" ht="16" customHeight="1">
+    <row r="20" spans="3:15" ht="16.05" customHeight="1">
       <c r="C20" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:15" ht="16" customHeight="1">
+    <row r="22" spans="3:15" ht="16.05" customHeight="1">
       <c r="D22" s="43" t="s">
         <v>1</v>
       </c>
@@ -5228,7 +5265,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="3:15" ht="16" customHeight="1">
+    <row r="23" spans="3:15" ht="16.05" customHeight="1">
       <c r="D23" s="72" t="s">
         <v>30</v>
       </c>
@@ -5250,7 +5287,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="3:15" ht="16" customHeight="1">
+    <row r="24" spans="3:15" ht="16.05" customHeight="1">
       <c r="D24" s="73"/>
       <c r="E24" s="77"/>
       <c r="F24" s="78"/>
@@ -5266,7 +5303,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="3:15" s="67" customFormat="1" ht="16" customHeight="1">
+    <row r="25" spans="3:15" s="67" customFormat="1" ht="16.05" customHeight="1">
       <c r="D25" s="72" t="s">
         <v>46</v>
       </c>
@@ -5288,7 +5325,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="3:15" ht="16" customHeight="1">
+    <row r="26" spans="3:15" ht="16.05" customHeight="1">
       <c r="D26" s="73"/>
       <c r="E26" s="77"/>
       <c r="F26" s="78"/>
@@ -5302,12 +5339,12 @@
       <c r="N26" s="69"/>
       <c r="O26" s="46"/>
     </row>
-    <row r="34" spans="3:14" ht="16" customHeight="1">
+    <row r="34" spans="3:14" ht="16.05" customHeight="1">
       <c r="C34" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="3:14" ht="16" customHeight="1">
+    <row r="36" spans="3:14" ht="16.05" customHeight="1">
       <c r="D36" s="43" t="s">
         <v>5</v>
       </c>
@@ -5326,7 +5363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="3:14" ht="16" customHeight="1">
+    <row r="37" spans="3:14" ht="16.05" customHeight="1">
       <c r="D37" s="47">
         <v>1</v>
       </c>
@@ -5345,7 +5382,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="3:14" ht="16" customHeight="1">
+    <row r="38" spans="3:14" ht="16.05" customHeight="1">
       <c r="D38" s="47">
         <v>2</v>
       </c>
@@ -5364,7 +5401,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="3:14" ht="16" customHeight="1">
+    <row r="39" spans="3:14" ht="16.05" customHeight="1">
       <c r="D39" s="47">
         <v>3</v>
       </c>
@@ -5407,27 +5444,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:AS21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="137" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="137" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.6640625" style="26" customWidth="1"/>
     <col min="2" max="2" width="6" style="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" style="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="27" customWidth="1"/>
-    <col min="5" max="5" width="38.1640625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="38.109375" style="28" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" style="28" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="53.6640625" style="28" customWidth="1"/>
     <col min="8" max="9" width="16.6640625" style="29" customWidth="1"/>
     <col min="10" max="10" width="17.33203125" style="29" customWidth="1"/>
     <col min="11" max="11" width="23.33203125" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.1640625" style="30" customWidth="1"/>
+    <col min="12" max="12" width="33.109375" style="30" customWidth="1"/>
     <col min="13" max="16384" width="5.6640625" style="30"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:45" ht="20">
+    <row r="2" spans="1:45" ht="20.399999999999999">
       <c r="B2" s="5"/>
       <c r="C2" s="4"/>
       <c r="D2" s="1"/>
@@ -5435,7 +5472,7 @@
       <c r="F2" s="63"/>
       <c r="G2" s="63"/>
     </row>
-    <row r="3" spans="1:45" ht="23">
+    <row r="3" spans="1:45" ht="22.8">
       <c r="B3" s="6" t="s">
         <v>20</v>
       </c>
@@ -5534,7 +5571,7 @@
       <c r="AR5" s="16"/>
       <c r="AS5" s="16"/>
     </row>
-    <row r="6" spans="1:45" s="21" customFormat="1" ht="17" thickBot="1">
+    <row r="6" spans="1:45" s="21" customFormat="1" ht="15.6" thickBot="1">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -5547,7 +5584,7 @@
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:45" ht="19" thickBot="1">
+    <row r="7" spans="1:45" ht="18" thickBot="1">
       <c r="B7" s="83" t="s">
         <v>12</v>
       </c>
@@ -5564,7 +5601,7 @@
       <c r="K7" s="23"/>
       <c r="L7" s="24"/>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:45" ht="15.6">
       <c r="B8" s="60"/>
       <c r="C8" s="61" t="s">
         <v>13</v>
@@ -5593,7 +5630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:45" ht="17" thickBot="1">
+    <row r="9" spans="1:45" ht="16.2" thickBot="1">
       <c r="B9" s="65" t="s">
         <v>5</v>
       </c>
@@ -5616,7 +5653,7 @@
       <c r="K9" s="90"/>
       <c r="L9" s="82"/>
     </row>
-    <row r="10" spans="1:45" ht="17" thickTop="1">
+    <row r="10" spans="1:45" ht="16.2" thickTop="1">
       <c r="B10" s="38">
         <v>1</v>
       </c>
@@ -5639,7 +5676,7 @@
       <c r="K10" s="53"/>
       <c r="L10" s="52"/>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:45" ht="15.6">
       <c r="B11" s="49"/>
       <c r="C11" s="54"/>
       <c r="D11" s="55">
@@ -5658,7 +5695,7 @@
       <c r="K11" s="53"/>
       <c r="L11" s="34"/>
     </row>
-    <row r="12" spans="1:45" ht="51">
+    <row r="12" spans="1:45" ht="45">
       <c r="B12" s="49"/>
       <c r="C12" s="32"/>
       <c r="D12" s="55">
@@ -5679,7 +5716,7 @@
       <c r="K12" s="53"/>
       <c r="L12" s="52"/>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:45" ht="48.6" customHeight="1">
       <c r="B13" s="49"/>
       <c r="C13" s="32"/>
       <c r="D13" s="55">
@@ -5691,14 +5728,16 @@
       <c r="F13" s="55">
         <v>4</v>
       </c>
-      <c r="G13" s="64"/>
+      <c r="G13" s="64" t="s">
+        <v>52</v>
+      </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
       <c r="J13" s="36"/>
       <c r="K13" s="53"/>
       <c r="L13" s="52"/>
     </row>
-    <row r="14" spans="1:45" ht="51">
+    <row r="14" spans="1:45" ht="45">
       <c r="B14" s="49"/>
       <c r="C14" s="32"/>
       <c r="D14" s="55">
@@ -5719,7 +5758,7 @@
       <c r="K14" s="53"/>
       <c r="L14" s="52"/>
     </row>
-    <row r="15" spans="1:45" ht="68">
+    <row r="15" spans="1:45" ht="60">
       <c r="B15" s="49"/>
       <c r="C15" s="32"/>
       <c r="D15" s="55">
@@ -5740,7 +5779,7 @@
       <c r="K15" s="53"/>
       <c r="L15" s="34"/>
     </row>
-    <row r="16" spans="1:45" ht="85">
+    <row r="16" spans="1:45" ht="75.599999999999994">
       <c r="B16" s="49"/>
       <c r="C16" s="32"/>
       <c r="D16" s="55">
@@ -5761,7 +5800,7 @@
       <c r="K16" s="53"/>
       <c r="L16" s="52"/>
     </row>
-    <row r="17" spans="1:12" ht="34">
+    <row r="17" spans="1:12" ht="45">
       <c r="B17" s="49"/>
       <c r="C17" s="32"/>
       <c r="D17" s="55">
@@ -5782,7 +5821,7 @@
       <c r="K17" s="53"/>
       <c r="L17" s="52"/>
     </row>
-    <row r="18" spans="1:12" ht="17" thickBot="1">
+    <row r="18" spans="1:12" ht="16.2" thickBot="1">
       <c r="B18" s="49"/>
       <c r="C18" s="32"/>
       <c r="D18" s="55">
@@ -5801,7 +5840,7 @@
       <c r="K18" s="53"/>
       <c r="L18" s="52"/>
     </row>
-    <row r="19" spans="1:12" ht="18" thickTop="1" thickBot="1">
+    <row r="19" spans="1:12" ht="16.8" thickTop="1" thickBot="1">
       <c r="B19" s="57"/>
       <c r="C19" s="58"/>
       <c r="D19" s="58"/>
@@ -5829,8 +5868,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C61E42EC-A28A-4F34-B1F0-5B0C369C3BFF}" scale="70">
-      <selection activeCell="W13" sqref="W13"/>
+    <customSheetView guid="{D6408F3F-69A9-4377-B307-B0A0F5ECDF86}">
+      <selection activeCell="J3" sqref="J3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -5839,8 +5878,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{D6408F3F-69A9-4377-B307-B0A0F5ECDF86}">
-      <selection activeCell="J3" sqref="J3"/>
+    <customSheetView guid="{C61E42EC-A28A-4F34-B1F0-5B0C369C3BFF}" scale="70">
+      <selection activeCell="W13" sqref="W13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>

--- a/ChecklistFile.xlsx
+++ b/ChecklistFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr updateLinks="never"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NGUYEN THANH SANG\Desktop\TKVM\LSI_Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Library/Mobile Documents/com~apple~CloudDocs/HCMUT/KÌ 6/LSI Logic Design/THỰC HÀNH/LSI_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854FFD53-C2C0-49D5-8B3F-8CCA42C54647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB82ECAA-008B-3944-9529-9C1B16F1407E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="643" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20360" tabRatio="643" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="13" r:id="rId1"/>
@@ -57,9 +57,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Hung Quang. Truong - Personal View" guid="{C61E42EC-A28A-4F34-B1F0-5B0C369C3BFF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1864" windowHeight="1218" activeSheetId="6"/>
+    <customWorkbookView name="Phong Thanh. Phan - Personal View" guid="{BBCD1273-FB62-4046-AADE-F9CEEA687EB3}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="5"/>
     <customWorkbookView name="Giang Truong Le. Nguyen - Personal View" guid="{D6408F3F-69A9-4377-B307-B0A0F5ECDF86}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="3"/>
-    <customWorkbookView name="Phong Thanh. Phan - Personal View" guid="{BBCD1273-FB62-4046-AADE-F9CEEA687EB3}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="5"/>
-    <customWorkbookView name="Hung Quang. Truong - Personal View" guid="{C61E42EC-A28A-4F34-B1F0-5B0C369C3BFF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1864" windowHeight="1218" activeSheetId="6"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>&lt;Revision history&gt;</t>
   </si>
@@ -309,6 +309,9 @@
       </rPr>
       <t xml:space="preserve"> signal. Test the dependence of the output on clk.</t>
     </r>
+  </si>
+  <si>
+    <t>Test if output count up or count down and count fast or slow.</t>
   </si>
 </sst>
 </file>
@@ -4000,75 +4003,75 @@
   </cellXfs>
   <cellStyles count="586">
     <cellStyle name="〰" xfId="88" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="〰〰" xfId="89" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="〰〰　0" xfId="90" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="〰〰　0 2" xfId="91" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="〰〰　0 3" xfId="92" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="〰〰　0???" xfId="93" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="〰 2" xfId="94" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="〰〰 2" xfId="95" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="〰 2 2" xfId="461" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="〰 2 2 2" xfId="551" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="〰 2 3" xfId="543" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="〰 3" xfId="96" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="〰〰 3" xfId="97" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="〰 3 2" xfId="462" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="〰 3 2 2" xfId="552" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
     <cellStyle name="〰 3 3" xfId="544" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="〰 4" xfId="98" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="〰〰 4" xfId="99" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="〰 4 2" xfId="463" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="〰 4 2 2" xfId="553" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="〰 4 3" xfId="545" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
     <cellStyle name="〰 5" xfId="100" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="〰〰 5" xfId="101" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
     <cellStyle name="〰 5 2" xfId="464" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="〰 5 2 2" xfId="554" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
     <cellStyle name="〰 5 3" xfId="546" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="〰 6" xfId="102" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="〰〰 6" xfId="103" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="〰 6 2" xfId="465" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
     <cellStyle name="〰 6 2 2" xfId="555" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="〰 6 3" xfId="547" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
     <cellStyle name="〰 7" xfId="104" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="〰〰 7" xfId="105" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
     <cellStyle name="〰 7 2" xfId="466" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
     <cellStyle name="〰 7 2 2" xfId="556" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
     <cellStyle name="〰 7 3" xfId="548" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="〰 8" xfId="460" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
     <cellStyle name="〰 8 2" xfId="550" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="〰 9" xfId="542" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="〰〰" xfId="89" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="〰〰　0" xfId="90" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="〰〰　0 2" xfId="91" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="〰〰　0 3" xfId="92" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="〰〰　0???" xfId="93" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="〰〰 2" xfId="95" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="〰〰 3" xfId="97" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="〰〰 4" xfId="99" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="〰〰 5" xfId="101" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="〰〰 6" xfId="103" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="〰〰 7" xfId="105" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="〰〰〰0" xfId="112" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="〰〰〰0 2" xfId="115" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="〰〰〰0 3" xfId="118" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="〰〰〰0 4" xfId="121" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="〰〰〰0 5" xfId="124" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="〰〰〰0 6" xfId="127" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="〰〰〰0 7" xfId="130" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="〰〰〰0???_Panther_SH7764_Checklist_SSI_V0.5_NewTemp" xfId="134" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="〰〰〰0?????" xfId="132" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="〰〰??" xfId="107" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="〰〰0" xfId="111" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="〰〰0 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="〰〰0 3" xfId="117" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="〰〰0 4" xfId="120" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="〰〰0 5" xfId="123" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="〰〰0 6" xfId="126" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="〰〰0 7" xfId="129" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="〰〰0????_Panther_SH7764_Checklist_SSI_V0.5_NewTemp_1" xfId="133" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
     <cellStyle name="〰?" xfId="106" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="〰? 2" xfId="527" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="〰? 2 2" xfId="580" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="〰〰??" xfId="107" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="???〰〰0???????" xfId="108" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
     <cellStyle name="〰?_Panther_SH7764_Checklist_SSI_V0.5_NewTemp" xfId="109" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
     <cellStyle name="〰0〰" xfId="110" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="〰〰0" xfId="111" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="〰〰〰0" xfId="112" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
     <cellStyle name="〰0〰 2" xfId="113" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="〰〰0 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="〰〰〰0 2" xfId="115" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
     <cellStyle name="〰0〰 3" xfId="116" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="〰〰0 3" xfId="117" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="〰〰〰0 3" xfId="118" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
     <cellStyle name="〰0〰 4" xfId="119" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="〰〰0 4" xfId="120" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="〰〰〰0 4" xfId="121" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
     <cellStyle name="〰0〰 5" xfId="122" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="〰〰0 5" xfId="123" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="〰〰〰0 5" xfId="124" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
     <cellStyle name="〰0〰 6" xfId="125" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="〰〰0 6" xfId="126" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="〰〰〰0 6" xfId="127" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
     <cellStyle name="〰0〰 7" xfId="128" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="〰〰0 7" xfId="129" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="〰〰〰0 7" xfId="130" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
     <cellStyle name="〰0〰???" xfId="131" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="〰〰〰0?????" xfId="132" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="〰〰0????_Panther_SH7764_Checklist_SSI_V0.5_NewTemp_1" xfId="133" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="〰〰〰0???_Panther_SH7764_Checklist_SSI_V0.5_NewTemp" xfId="134" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="???〰〰0???????" xfId="108" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
@@ -5196,54 +5199,54 @@
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.05" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="2.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="2.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
-    <col min="5" max="12" width="8.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.77734375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.109375" style="1" customWidth="1"/>
+    <col min="5" max="12" width="8.1640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.1640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="22" style="1" customWidth="1"/>
-    <col min="16" max="307" width="8.109375" style="1" customWidth="1"/>
+    <col min="16" max="307" width="8.1640625" style="1" customWidth="1"/>
     <col min="308" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:9" ht="16.05" customHeight="1">
+    <row r="3" spans="4:9" ht="16" customHeight="1">
       <c r="D3" s="39"/>
       <c r="E3" s="40"/>
       <c r="F3" s="41"/>
     </row>
-    <row r="4" spans="4:9" ht="16.05" customHeight="1">
+    <row r="4" spans="4:9" ht="16" customHeight="1">
       <c r="D4" s="42"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
     </row>
-    <row r="10" spans="4:9" ht="40.200000000000003">
+    <row r="10" spans="4:9" ht="40">
       <c r="I10" s="2"/>
     </row>
-    <row r="12" spans="4:9" ht="28.2">
+    <row r="12" spans="4:9" ht="28">
       <c r="I12" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="4:9" ht="16.05" customHeight="1">
+    <row r="14" spans="4:9" ht="16" customHeight="1">
       <c r="I14" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="4:9" ht="16.05" customHeight="1">
+    <row r="15" spans="4:9" ht="16" customHeight="1">
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="4:9" ht="16.05" customHeight="1">
+    <row r="16" spans="4:9" ht="16" customHeight="1">
       <c r="E16" s="14"/>
     </row>
-    <row r="20" spans="3:15" ht="16.05" customHeight="1">
+    <row r="20" spans="3:15" ht="16" customHeight="1">
       <c r="C20" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:15" ht="16.05" customHeight="1">
+    <row r="22" spans="3:15" ht="16" customHeight="1">
       <c r="D22" s="43" t="s">
         <v>1</v>
       </c>
@@ -5265,7 +5268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="3:15" ht="16.05" customHeight="1">
+    <row r="23" spans="3:15" ht="16" customHeight="1">
       <c r="D23" s="72" t="s">
         <v>30</v>
       </c>
@@ -5287,7 +5290,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="3:15" ht="16.05" customHeight="1">
+    <row r="24" spans="3:15" ht="16" customHeight="1">
       <c r="D24" s="73"/>
       <c r="E24" s="77"/>
       <c r="F24" s="78"/>
@@ -5303,7 +5306,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="3:15" s="67" customFormat="1" ht="16.05" customHeight="1">
+    <row r="25" spans="3:15" s="67" customFormat="1" ht="16" customHeight="1">
       <c r="D25" s="72" t="s">
         <v>46</v>
       </c>
@@ -5325,7 +5328,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="3:15" ht="16.05" customHeight="1">
+    <row r="26" spans="3:15" ht="16" customHeight="1">
       <c r="D26" s="73"/>
       <c r="E26" s="77"/>
       <c r="F26" s="78"/>
@@ -5339,12 +5342,12 @@
       <c r="N26" s="69"/>
       <c r="O26" s="46"/>
     </row>
-    <row r="34" spans="3:14" ht="16.05" customHeight="1">
+    <row r="34" spans="3:14" ht="16" customHeight="1">
       <c r="C34" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="3:14" ht="16.05" customHeight="1">
+    <row r="36" spans="3:14" ht="16" customHeight="1">
       <c r="D36" s="43" t="s">
         <v>5</v>
       </c>
@@ -5363,7 +5366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="3:14" ht="16.05" customHeight="1">
+    <row r="37" spans="3:14" ht="16" customHeight="1">
       <c r="D37" s="47">
         <v>1</v>
       </c>
@@ -5382,7 +5385,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="3:14" ht="16.05" customHeight="1">
+    <row r="38" spans="3:14" ht="16" customHeight="1">
       <c r="D38" s="47">
         <v>2</v>
       </c>
@@ -5401,7 +5404,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="3:14" ht="16.05" customHeight="1">
+    <row r="39" spans="3:14" ht="16" customHeight="1">
       <c r="D39" s="47">
         <v>3</v>
       </c>
@@ -5444,27 +5447,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:AS21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="137" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D2" zoomScale="137" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="5.6640625" style="26" customWidth="1"/>
     <col min="2" max="2" width="6" style="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" style="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="27" customWidth="1"/>
-    <col min="5" max="5" width="38.109375" style="28" customWidth="1"/>
+    <col min="5" max="5" width="38.1640625" style="28" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" style="28" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="53.6640625" style="28" customWidth="1"/>
     <col min="8" max="9" width="16.6640625" style="29" customWidth="1"/>
     <col min="10" max="10" width="17.33203125" style="29" customWidth="1"/>
     <col min="11" max="11" width="23.33203125" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.109375" style="30" customWidth="1"/>
+    <col min="12" max="12" width="33.1640625" style="30" customWidth="1"/>
     <col min="13" max="16384" width="5.6640625" style="30"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:45" ht="20.399999999999999">
+    <row r="2" spans="1:45" ht="20">
       <c r="B2" s="5"/>
       <c r="C2" s="4"/>
       <c r="D2" s="1"/>
@@ -5472,7 +5475,7 @@
       <c r="F2" s="63"/>
       <c r="G2" s="63"/>
     </row>
-    <row r="3" spans="1:45" ht="22.8">
+    <row r="3" spans="1:45" ht="23">
       <c r="B3" s="6" t="s">
         <v>20</v>
       </c>
@@ -5571,7 +5574,7 @@
       <c r="AR5" s="16"/>
       <c r="AS5" s="16"/>
     </row>
-    <row r="6" spans="1:45" s="21" customFormat="1" ht="15.6" thickBot="1">
+    <row r="6" spans="1:45" s="21" customFormat="1" ht="17" thickBot="1">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -5584,7 +5587,7 @@
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:45" ht="18" thickBot="1">
+    <row r="7" spans="1:45" ht="19" thickBot="1">
       <c r="B7" s="83" t="s">
         <v>12</v>
       </c>
@@ -5601,7 +5604,7 @@
       <c r="K7" s="23"/>
       <c r="L7" s="24"/>
     </row>
-    <row r="8" spans="1:45" ht="15.6">
+    <row r="8" spans="1:45">
       <c r="B8" s="60"/>
       <c r="C8" s="61" t="s">
         <v>13</v>
@@ -5630,7 +5633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:45" ht="16.2" thickBot="1">
+    <row r="9" spans="1:45" ht="17" thickBot="1">
       <c r="B9" s="65" t="s">
         <v>5</v>
       </c>
@@ -5653,7 +5656,7 @@
       <c r="K9" s="90"/>
       <c r="L9" s="82"/>
     </row>
-    <row r="10" spans="1:45" ht="16.2" thickTop="1">
+    <row r="10" spans="1:45" ht="17" thickTop="1">
       <c r="B10" s="38">
         <v>1</v>
       </c>
@@ -5676,7 +5679,7 @@
       <c r="K10" s="53"/>
       <c r="L10" s="52"/>
     </row>
-    <row r="11" spans="1:45" ht="15.6">
+    <row r="11" spans="1:45" ht="34">
       <c r="B11" s="49"/>
       <c r="C11" s="54"/>
       <c r="D11" s="55">
@@ -5688,14 +5691,16 @@
       <c r="F11" s="55">
         <v>2</v>
       </c>
-      <c r="G11" s="64"/>
+      <c r="G11" s="64" t="s">
+        <v>53</v>
+      </c>
       <c r="H11" s="33"/>
       <c r="I11" s="33"/>
       <c r="J11" s="51"/>
       <c r="K11" s="53"/>
       <c r="L11" s="34"/>
     </row>
-    <row r="12" spans="1:45" ht="45">
+    <row r="12" spans="1:45" ht="51">
       <c r="B12" s="49"/>
       <c r="C12" s="32"/>
       <c r="D12" s="55">
@@ -5716,7 +5721,7 @@
       <c r="K12" s="53"/>
       <c r="L12" s="52"/>
     </row>
-    <row r="13" spans="1:45" ht="48.6" customHeight="1">
+    <row r="13" spans="1:45" ht="48.5" customHeight="1">
       <c r="B13" s="49"/>
       <c r="C13" s="32"/>
       <c r="D13" s="55">
@@ -5737,7 +5742,7 @@
       <c r="K13" s="53"/>
       <c r="L13" s="52"/>
     </row>
-    <row r="14" spans="1:45" ht="45">
+    <row r="14" spans="1:45" ht="51">
       <c r="B14" s="49"/>
       <c r="C14" s="32"/>
       <c r="D14" s="55">
@@ -5758,7 +5763,7 @@
       <c r="K14" s="53"/>
       <c r="L14" s="52"/>
     </row>
-    <row r="15" spans="1:45" ht="60">
+    <row r="15" spans="1:45" ht="68">
       <c r="B15" s="49"/>
       <c r="C15" s="32"/>
       <c r="D15" s="55">
@@ -5779,7 +5784,7 @@
       <c r="K15" s="53"/>
       <c r="L15" s="34"/>
     </row>
-    <row r="16" spans="1:45" ht="75.599999999999994">
+    <row r="16" spans="1:45" ht="85">
       <c r="B16" s="49"/>
       <c r="C16" s="32"/>
       <c r="D16" s="55">
@@ -5800,7 +5805,7 @@
       <c r="K16" s="53"/>
       <c r="L16" s="52"/>
     </row>
-    <row r="17" spans="1:12" ht="45">
+    <row r="17" spans="1:12" ht="34">
       <c r="B17" s="49"/>
       <c r="C17" s="32"/>
       <c r="D17" s="55">
@@ -5821,7 +5826,7 @@
       <c r="K17" s="53"/>
       <c r="L17" s="52"/>
     </row>
-    <row r="18" spans="1:12" ht="16.2" thickBot="1">
+    <row r="18" spans="1:12" ht="17" thickBot="1">
       <c r="B18" s="49"/>
       <c r="C18" s="32"/>
       <c r="D18" s="55">
@@ -5840,7 +5845,7 @@
       <c r="K18" s="53"/>
       <c r="L18" s="52"/>
     </row>
-    <row r="19" spans="1:12" ht="16.8" thickTop="1" thickBot="1">
+    <row r="19" spans="1:12" ht="18" thickTop="1" thickBot="1">
       <c r="B19" s="57"/>
       <c r="C19" s="58"/>
       <c r="D19" s="58"/>
@@ -5868,8 +5873,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{D6408F3F-69A9-4377-B307-B0A0F5ECDF86}">
-      <selection activeCell="J3" sqref="J3"/>
+    <customSheetView guid="{C61E42EC-A28A-4F34-B1F0-5B0C369C3BFF}" scale="70">
+      <selection activeCell="W13" sqref="W13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -5878,8 +5883,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{C61E42EC-A28A-4F34-B1F0-5B0C369C3BFF}" scale="70">
-      <selection activeCell="W13" sqref="W13"/>
+    <customSheetView guid="{D6408F3F-69A9-4377-B307-B0A0F5ECDF86}">
+      <selection activeCell="J3" sqref="J3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
